--- a/matlabfiles/capGraficiMult/CoordGeogProvince.xlsx
+++ b/matlabfiles/capGraficiMult/CoordGeogProvince.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\books\DataScienceWithMatlab\matlabMfiles\capGraficiMult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE81C60-8122-4605-A264-57C3A49FDE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D07D935-28D1-4590-A61D-1D7B6ED92799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20701,10 +20701,10 @@
     <t>45.5333°</t>
   </si>
   <si>
-    <t>Latitudine</t>
-  </si>
-  <si>
-    <t>Longitudine</t>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
   </si>
 </sst>
 </file>
@@ -20931,6 +20931,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -20940,11 +20952,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
@@ -20955,6 +20967,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
@@ -20963,12 +20981,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -20981,18 +20993,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21012,9 +21012,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -21052,9 +21052,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21087,26 +21087,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21139,26 +21122,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21335,7 +21301,7 @@
   <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
@@ -25524,6 +25490,606 @@
     </row>
   </sheetData>
   <mergeCells count="624">
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="L103:O103"/>
+    <mergeCell ref="P103:R103"/>
+    <mergeCell ref="S103:T103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="L104:O104"/>
+    <mergeCell ref="P104:R104"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="L100:O100"/>
+    <mergeCell ref="P100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="L101:O101"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:O102"/>
+    <mergeCell ref="P102:R102"/>
+    <mergeCell ref="S102:T102"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:O97"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="L98:O98"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:O99"/>
+    <mergeCell ref="P99:R99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="L94:O94"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L95:O95"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:K96"/>
+    <mergeCell ref="L96:O96"/>
+    <mergeCell ref="P96:R96"/>
+    <mergeCell ref="S96:T96"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="L91:O91"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:R92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="L93:O93"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="L88:O88"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="L89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="L82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="L80:O80"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="L81:O81"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="L74:O74"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="L71:O71"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="L72:O72"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:K6"/>
@@ -25548,606 +26114,6 @@
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:T3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="L72:O72"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="L74:O74"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="L80:O80"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:K81"/>
-    <mergeCell ref="L81:O81"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="L82:O82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="L83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="L85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:K86"/>
-    <mergeCell ref="L86:O86"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:K87"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:K88"/>
-    <mergeCell ref="L88:O88"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="L89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:K96"/>
-    <mergeCell ref="L96:O96"/>
-    <mergeCell ref="P96:R96"/>
-    <mergeCell ref="S96:T96"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:K91"/>
-    <mergeCell ref="L91:O91"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:R92"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="L93:O93"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:K94"/>
-    <mergeCell ref="L94:O94"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L95:O95"/>
-    <mergeCell ref="P95:R95"/>
-    <mergeCell ref="S95:T95"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="L102:O102"/>
-    <mergeCell ref="P102:R102"/>
-    <mergeCell ref="S102:T102"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:O97"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="L98:O98"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:O99"/>
-    <mergeCell ref="P99:R99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="L100:O100"/>
-    <mergeCell ref="P100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:K101"/>
-    <mergeCell ref="L101:O101"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:K103"/>
-    <mergeCell ref="L103:O103"/>
-    <mergeCell ref="P103:R103"/>
-    <mergeCell ref="S103:T103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="L104:O104"/>
-    <mergeCell ref="P104:R104"/>
-    <mergeCell ref="S104:T104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26212,27 +26178,27 @@
         <v>7</v>
       </c>
       <c r="H2" s="17"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="30" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="34" t="s">
         <v>601</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="42" t="s">
         <v>602</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="30" t="s">
+      <c r="S2" s="43"/>
+      <c r="T2" s="34" t="s">
         <v>603</v>
       </c>
-      <c r="U2" s="32"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
@@ -26247,27 +26213,27 @@
         <v>13</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="30" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="30" t="s">
+      <c r="S3" s="43"/>
+      <c r="T3" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="U3" s="32"/>
+      <c r="U3" s="36"/>
     </row>
     <row r="4" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
@@ -26282,27 +26248,27 @@
         <v>19</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="33" t="s">
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="42" t="s">
         <v>610</v>
       </c>
-      <c r="S4" s="34"/>
-      <c r="T4" s="30" t="s">
+      <c r="S4" s="43"/>
+      <c r="T4" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="U4" s="32"/>
+      <c r="U4" s="36"/>
     </row>
     <row r="5" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="13" t="s">
@@ -26317,27 +26283,27 @@
         <v>25</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="34" t="s">
         <v>612</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="30" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="34" t="s">
         <v>613</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33" t="s">
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="42" t="s">
         <v>614</v>
       </c>
-      <c r="S5" s="34"/>
-      <c r="T5" s="30" t="s">
+      <c r="S5" s="43"/>
+      <c r="T5" s="34" t="s">
         <v>615</v>
       </c>
-      <c r="U5" s="32"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
@@ -26352,27 +26318,27 @@
         <v>31</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="30" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="34" t="s">
         <v>617</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33" t="s">
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="42" t="s">
         <v>618</v>
       </c>
-      <c r="S6" s="34"/>
-      <c r="T6" s="30" t="s">
+      <c r="S6" s="43"/>
+      <c r="T6" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="U6" s="32"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
@@ -26387,27 +26353,27 @@
         <v>37</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="30" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="S7" s="34"/>
-      <c r="T7" s="30" t="s">
+      <c r="S7" s="43"/>
+      <c r="T7" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="U7" s="32"/>
+      <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
@@ -26422,27 +26388,27 @@
         <v>43</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="30" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="30" t="s">
+      <c r="S8" s="43"/>
+      <c r="T8" s="34" t="s">
         <v>627</v>
       </c>
-      <c r="U8" s="32"/>
+      <c r="U8" s="36"/>
     </row>
     <row r="9" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
@@ -26457,27 +26423,27 @@
         <v>49</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="35" t="s">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="33" t="s">
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42" t="s">
         <v>630</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35" t="s">
+      <c r="S9" s="43"/>
+      <c r="T9" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="U9" s="37"/>
+      <c r="U9" s="41"/>
     </row>
     <row r="10" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
@@ -26492,27 +26458,27 @@
         <v>55</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="35" t="s">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="39" t="s">
         <v>633</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="33" t="s">
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35" t="s">
+      <c r="S10" s="43"/>
+      <c r="T10" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="U10" s="37"/>
+      <c r="U10" s="41"/>
     </row>
     <row r="11" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
@@ -26527,27 +26493,27 @@
         <v>61</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="35" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="39" t="s">
         <v>637</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="33" t="s">
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42" t="s">
         <v>638</v>
       </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35" t="s">
+      <c r="S11" s="43"/>
+      <c r="T11" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="U11" s="37"/>
+      <c r="U11" s="41"/>
     </row>
     <row r="12" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
@@ -26562,27 +26528,27 @@
         <v>67</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="35" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="33" t="s">
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="S12" s="34"/>
-      <c r="T12" s="35" t="s">
+      <c r="S12" s="43"/>
+      <c r="T12" s="39" t="s">
         <v>643</v>
       </c>
-      <c r="U12" s="37"/>
+      <c r="U12" s="41"/>
     </row>
     <row r="13" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13" t="s">
@@ -26597,27 +26563,27 @@
         <v>73</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="35" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="39" t="s">
         <v>645</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="33" t="s">
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="S13" s="34"/>
-      <c r="T13" s="35" t="s">
+      <c r="S13" s="43"/>
+      <c r="T13" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="U13" s="37"/>
+      <c r="U13" s="41"/>
     </row>
     <row r="14" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
@@ -26632,27 +26598,27 @@
         <v>79</v>
       </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="34" t="s">
         <v>648</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="35" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="39" t="s">
         <v>649</v>
       </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="33" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="S14" s="34"/>
-      <c r="T14" s="35" t="s">
+      <c r="S14" s="43"/>
+      <c r="T14" s="39" t="s">
         <v>651</v>
       </c>
-      <c r="U14" s="37"/>
+      <c r="U14" s="41"/>
     </row>
     <row r="15" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="13" t="s">
@@ -26667,27 +26633,27 @@
         <v>85</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="35" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="33" t="s">
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42" t="s">
         <v>654</v>
       </c>
-      <c r="S15" s="34"/>
-      <c r="T15" s="35" t="s">
+      <c r="S15" s="43"/>
+      <c r="T15" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="U15" s="37"/>
+      <c r="U15" s="41"/>
     </row>
     <row r="16" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
@@ -26702,27 +26668,27 @@
         <v>91</v>
       </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="35" t="s">
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="39" t="s">
         <v>657</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="33" t="s">
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35" t="s">
+      <c r="S16" s="43"/>
+      <c r="T16" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="U16" s="37"/>
+      <c r="U16" s="41"/>
     </row>
     <row r="17" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="13" t="s">
@@ -26737,27 +26703,27 @@
         <v>97</v>
       </c>
       <c r="H17" s="17"/>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="35" t="s">
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="33" t="s">
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35" t="s">
+      <c r="S17" s="43"/>
+      <c r="T17" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="U17" s="37"/>
+      <c r="U17" s="41"/>
     </row>
     <row r="18" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
@@ -26772,27 +26738,27 @@
         <v>102</v>
       </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="35" t="s">
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="33" t="s">
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="S18" s="34"/>
-      <c r="T18" s="35" t="s">
+      <c r="S18" s="43"/>
+      <c r="T18" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="U18" s="37"/>
+      <c r="U18" s="41"/>
     </row>
     <row r="19" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
@@ -26807,27 +26773,27 @@
         <v>108</v>
       </c>
       <c r="H19" s="17"/>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="35" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="33" t="s">
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42" t="s">
         <v>670</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="35" t="s">
+      <c r="S19" s="43"/>
+      <c r="T19" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="U19" s="37"/>
+      <c r="U19" s="41"/>
     </row>
     <row r="20" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
@@ -26842,27 +26808,27 @@
         <v>114</v>
       </c>
       <c r="H20" s="17"/>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="34" t="s">
         <v>672</v>
       </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="35" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="33" t="s">
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="S20" s="34"/>
-      <c r="T20" s="35" t="s">
+      <c r="S20" s="43"/>
+      <c r="T20" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="U20" s="37"/>
+      <c r="U20" s="41"/>
     </row>
     <row r="21" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
@@ -26877,27 +26843,27 @@
         <v>120</v>
       </c>
       <c r="H21" s="17"/>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="34" t="s">
         <v>676</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="35" t="s">
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="33" t="s">
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42" t="s">
         <v>678</v>
       </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="35" t="s">
+      <c r="S21" s="43"/>
+      <c r="T21" s="39" t="s">
         <v>679</v>
       </c>
-      <c r="U21" s="37"/>
+      <c r="U21" s="41"/>
     </row>
     <row r="22" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="13" t="s">
@@ -26912,27 +26878,27 @@
         <v>126</v>
       </c>
       <c r="H22" s="17"/>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="35" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="33" t="s">
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42" t="s">
         <v>682</v>
       </c>
-      <c r="S22" s="34"/>
-      <c r="T22" s="35" t="s">
+      <c r="S22" s="43"/>
+      <c r="T22" s="39" t="s">
         <v>683</v>
       </c>
-      <c r="U22" s="37"/>
+      <c r="U22" s="41"/>
     </row>
     <row r="23" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
@@ -26947,27 +26913,27 @@
         <v>132</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="34" t="s">
         <v>684</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="35" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="39" t="s">
         <v>685</v>
       </c>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="33" t="s">
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="S23" s="34"/>
-      <c r="T23" s="35" t="s">
+      <c r="S23" s="43"/>
+      <c r="T23" s="39" t="s">
         <v>687</v>
       </c>
-      <c r="U23" s="37"/>
+      <c r="U23" s="41"/>
     </row>
     <row r="24" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
@@ -26982,27 +26948,27 @@
         <v>138</v>
       </c>
       <c r="H24" s="17"/>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="34" t="s">
         <v>688</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="35" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="33" t="s">
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42" t="s">
         <v>690</v>
       </c>
-      <c r="S24" s="34"/>
-      <c r="T24" s="35" t="s">
+      <c r="S24" s="43"/>
+      <c r="T24" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="U24" s="37"/>
+      <c r="U24" s="41"/>
     </row>
     <row r="25" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
@@ -27017,27 +26983,27 @@
         <v>144</v>
       </c>
       <c r="H25" s="17"/>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="35" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="33" t="s">
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="S25" s="34"/>
-      <c r="T25" s="35" t="s">
+      <c r="S25" s="43"/>
+      <c r="T25" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="U25" s="37"/>
+      <c r="U25" s="41"/>
     </row>
     <row r="26" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
@@ -27052,27 +27018,27 @@
         <v>150</v>
       </c>
       <c r="H26" s="17"/>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="34" t="s">
         <v>696</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="35" t="s">
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="33" t="s">
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="S26" s="34"/>
-      <c r="T26" s="35" t="s">
+      <c r="S26" s="43"/>
+      <c r="T26" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="U26" s="37"/>
+      <c r="U26" s="41"/>
     </row>
     <row r="27" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="13" t="s">
@@ -27087,27 +27053,27 @@
         <v>156</v>
       </c>
       <c r="H27" s="17"/>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="34" t="s">
         <v>700</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="35" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="39" t="s">
         <v>701</v>
       </c>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="33" t="s">
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42" t="s">
         <v>702</v>
       </c>
-      <c r="S27" s="34"/>
-      <c r="T27" s="35" t="s">
+      <c r="S27" s="43"/>
+      <c r="T27" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="U27" s="37"/>
+      <c r="U27" s="41"/>
     </row>
     <row r="28" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
@@ -27122,27 +27088,27 @@
         <v>162</v>
       </c>
       <c r="H28" s="17"/>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="34" t="s">
         <v>704</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="35" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="33" t="s">
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42" t="s">
         <v>706</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="35" t="s">
+      <c r="S28" s="43"/>
+      <c r="T28" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="U28" s="37"/>
+      <c r="U28" s="41"/>
     </row>
     <row r="29" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
@@ -27157,27 +27123,27 @@
         <v>168</v>
       </c>
       <c r="H29" s="17"/>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="34" t="s">
         <v>708</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="35" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="33" t="s">
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42" t="s">
         <v>710</v>
       </c>
-      <c r="S29" s="34"/>
-      <c r="T29" s="35" t="s">
+      <c r="S29" s="43"/>
+      <c r="T29" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="U29" s="37"/>
+      <c r="U29" s="41"/>
     </row>
     <row r="30" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="13" t="s">
@@ -27192,27 +27158,27 @@
         <v>174</v>
       </c>
       <c r="H30" s="17"/>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="34" t="s">
         <v>712</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="35" t="s">
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="33" t="s">
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="S30" s="34"/>
-      <c r="T30" s="35" t="s">
+      <c r="S30" s="43"/>
+      <c r="T30" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="U30" s="37"/>
+      <c r="U30" s="41"/>
     </row>
     <row r="31" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="13" t="s">
@@ -27227,27 +27193,27 @@
         <v>180</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="35" t="s">
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="33" t="s">
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42" t="s">
         <v>718</v>
       </c>
-      <c r="S31" s="34"/>
-      <c r="T31" s="35" t="s">
+      <c r="S31" s="43"/>
+      <c r="T31" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="U31" s="37"/>
+      <c r="U31" s="41"/>
     </row>
     <row r="32" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
@@ -27262,27 +27228,27 @@
         <v>186</v>
       </c>
       <c r="H32" s="17"/>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="35" t="s">
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="33" t="s">
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="35" t="s">
+      <c r="S32" s="43"/>
+      <c r="T32" s="39" t="s">
         <v>723</v>
       </c>
-      <c r="U32" s="37"/>
+      <c r="U32" s="41"/>
     </row>
     <row r="33" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="13" t="s">
@@ -27297,27 +27263,27 @@
         <v>192</v>
       </c>
       <c r="H33" s="17"/>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="34" t="s">
         <v>724</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="35" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="39" t="s">
         <v>725</v>
       </c>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="33" t="s">
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42" t="s">
         <v>726</v>
       </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="35" t="s">
+      <c r="S33" s="43"/>
+      <c r="T33" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="U33" s="37"/>
+      <c r="U33" s="41"/>
     </row>
     <row r="34" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
@@ -27332,27 +27298,27 @@
         <v>198</v>
       </c>
       <c r="H34" s="17"/>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="34" t="s">
         <v>728</v>
       </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="35" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="33" t="s">
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="42" t="s">
         <v>730</v>
       </c>
-      <c r="S34" s="34"/>
-      <c r="T34" s="35" t="s">
+      <c r="S34" s="43"/>
+      <c r="T34" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="U34" s="37"/>
+      <c r="U34" s="41"/>
     </row>
     <row r="35" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="13" t="s">
@@ -27367,27 +27333,27 @@
         <v>204</v>
       </c>
       <c r="H35" s="17"/>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="34" t="s">
         <v>732</v>
       </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="35" t="s">
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="39" t="s">
         <v>733</v>
       </c>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="33" t="s">
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42" t="s">
         <v>734</v>
       </c>
-      <c r="S35" s="34"/>
-      <c r="T35" s="35" t="s">
+      <c r="S35" s="43"/>
+      <c r="T35" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="U35" s="37"/>
+      <c r="U35" s="41"/>
     </row>
     <row r="36" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="13" t="s">
@@ -27402,27 +27368,27 @@
         <v>210</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="35" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="33" t="s">
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42" t="s">
         <v>738</v>
       </c>
-      <c r="S36" s="34"/>
-      <c r="T36" s="35" t="s">
+      <c r="S36" s="43"/>
+      <c r="T36" s="39" t="s">
         <v>739</v>
       </c>
-      <c r="U36" s="37"/>
+      <c r="U36" s="41"/>
     </row>
     <row r="37" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="13" t="s">
@@ -27437,27 +27403,27 @@
         <v>216</v>
       </c>
       <c r="H37" s="17"/>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="34" t="s">
         <v>740</v>
       </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="35" t="s">
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="39" t="s">
         <v>741</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="33" t="s">
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42" t="s">
         <v>742</v>
       </c>
-      <c r="S37" s="34"/>
-      <c r="T37" s="35" t="s">
+      <c r="S37" s="43"/>
+      <c r="T37" s="39" t="s">
         <v>743</v>
       </c>
-      <c r="U37" s="37"/>
+      <c r="U37" s="41"/>
     </row>
     <row r="38" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
@@ -27472,27 +27438,27 @@
         <v>222</v>
       </c>
       <c r="H38" s="17"/>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="34" t="s">
         <v>744</v>
       </c>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="35" t="s">
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="33" t="s">
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42" t="s">
         <v>746</v>
       </c>
-      <c r="S38" s="34"/>
-      <c r="T38" s="35" t="s">
+      <c r="S38" s="43"/>
+      <c r="T38" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="U38" s="37"/>
+      <c r="U38" s="41"/>
     </row>
     <row r="39" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="13" t="s">
@@ -27507,27 +27473,27 @@
         <v>228</v>
       </c>
       <c r="H39" s="17"/>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="35" t="s">
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="33" t="s">
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42" t="s">
         <v>750</v>
       </c>
-      <c r="S39" s="34"/>
-      <c r="T39" s="35" t="s">
+      <c r="S39" s="43"/>
+      <c r="T39" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="U39" s="37"/>
+      <c r="U39" s="41"/>
     </row>
     <row r="40" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -27542,27 +27508,27 @@
         <v>234</v>
       </c>
       <c r="H40" s="17"/>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="34" t="s">
         <v>752</v>
       </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="35" t="s">
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="33" t="s">
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="S40" s="34"/>
-      <c r="T40" s="35" t="s">
+      <c r="S40" s="43"/>
+      <c r="T40" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="U40" s="37"/>
+      <c r="U40" s="41"/>
     </row>
     <row r="41" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
@@ -27577,27 +27543,27 @@
         <v>240</v>
       </c>
       <c r="H41" s="17"/>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="35" t="s">
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="33" t="s">
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="S41" s="34"/>
-      <c r="T41" s="35" t="s">
+      <c r="S41" s="43"/>
+      <c r="T41" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="U41" s="37"/>
+      <c r="U41" s="41"/>
     </row>
     <row r="42" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="13" t="s">
@@ -27612,27 +27578,27 @@
         <v>246</v>
       </c>
       <c r="H42" s="17"/>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="35" t="s">
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="33" t="s">
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42" t="s">
         <v>762</v>
       </c>
-      <c r="S42" s="34"/>
-      <c r="T42" s="35" t="s">
+      <c r="S42" s="43"/>
+      <c r="T42" s="39" t="s">
         <v>763</v>
       </c>
-      <c r="U42" s="37"/>
+      <c r="U42" s="41"/>
     </row>
     <row r="43" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="13" t="s">
@@ -27647,27 +27613,27 @@
         <v>250</v>
       </c>
       <c r="H43" s="17"/>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="34" t="s">
         <v>764</v>
       </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="35" t="s">
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="33" t="s">
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42" t="s">
         <v>766</v>
       </c>
-      <c r="S43" s="34"/>
-      <c r="T43" s="35" t="s">
+      <c r="S43" s="43"/>
+      <c r="T43" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="U43" s="37"/>
+      <c r="U43" s="41"/>
     </row>
     <row r="44" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="13" t="s">
@@ -27682,27 +27648,27 @@
         <v>256</v>
       </c>
       <c r="H44" s="17"/>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="35" t="s">
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="33" t="s">
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42" t="s">
         <v>770</v>
       </c>
-      <c r="S44" s="34"/>
-      <c r="T44" s="35" t="s">
+      <c r="S44" s="43"/>
+      <c r="T44" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="U44" s="37"/>
+      <c r="U44" s="41"/>
     </row>
     <row r="45" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
@@ -27717,27 +27683,27 @@
         <v>260</v>
       </c>
       <c r="H45" s="17"/>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="34" t="s">
         <v>772</v>
       </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="35" t="s">
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="39" t="s">
         <v>773</v>
       </c>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="33" t="s">
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="42" t="s">
         <v>774</v>
       </c>
-      <c r="S45" s="34"/>
-      <c r="T45" s="35" t="s">
+      <c r="S45" s="43"/>
+      <c r="T45" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="U45" s="37"/>
+      <c r="U45" s="41"/>
     </row>
     <row r="46" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
@@ -27752,27 +27718,27 @@
         <v>266</v>
       </c>
       <c r="H46" s="17"/>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="34" t="s">
         <v>776</v>
       </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="35" t="s">
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="39" t="s">
         <v>777</v>
       </c>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="33" t="s">
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="42" t="s">
         <v>778</v>
       </c>
-      <c r="S46" s="34"/>
-      <c r="T46" s="35" t="s">
+      <c r="S46" s="43"/>
+      <c r="T46" s="39" t="s">
         <v>779</v>
       </c>
-      <c r="U46" s="37"/>
+      <c r="U46" s="41"/>
     </row>
     <row r="47" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="13" t="s">
@@ -27787,27 +27753,27 @@
         <v>272</v>
       </c>
       <c r="H47" s="17"/>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="34" t="s">
         <v>780</v>
       </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="35" t="s">
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="33" t="s">
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="S47" s="34"/>
-      <c r="T47" s="35" t="s">
+      <c r="S47" s="43"/>
+      <c r="T47" s="39" t="s">
         <v>783</v>
       </c>
-      <c r="U47" s="37"/>
+      <c r="U47" s="41"/>
     </row>
     <row r="48" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="13" t="s">
@@ -27822,27 +27788,27 @@
         <v>278</v>
       </c>
       <c r="H48" s="17"/>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="34" t="s">
         <v>784</v>
       </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="35" t="s">
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="39" t="s">
         <v>785</v>
       </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="33" t="s">
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="42" t="s">
         <v>786</v>
       </c>
-      <c r="S48" s="34"/>
-      <c r="T48" s="35" t="s">
+      <c r="S48" s="43"/>
+      <c r="T48" s="39" t="s">
         <v>787</v>
       </c>
-      <c r="U48" s="37"/>
+      <c r="U48" s="41"/>
     </row>
     <row r="49" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="13" t="s">
@@ -27857,27 +27823,27 @@
         <v>284</v>
       </c>
       <c r="H49" s="17"/>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="34" t="s">
         <v>788</v>
       </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="35" t="s">
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="39" t="s">
         <v>789</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="33" t="s">
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="42" t="s">
         <v>790</v>
       </c>
-      <c r="S49" s="34"/>
-      <c r="T49" s="35" t="s">
+      <c r="S49" s="43"/>
+      <c r="T49" s="39" t="s">
         <v>791</v>
       </c>
-      <c r="U49" s="37"/>
+      <c r="U49" s="41"/>
     </row>
     <row r="50" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="13" t="s">
@@ -27892,27 +27858,27 @@
         <v>290</v>
       </c>
       <c r="H50" s="17"/>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="34" t="s">
         <v>792</v>
       </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="35" t="s">
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="39" t="s">
         <v>793</v>
       </c>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="33" t="s">
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="S50" s="34"/>
-      <c r="T50" s="35" t="s">
+      <c r="S50" s="43"/>
+      <c r="T50" s="39" t="s">
         <v>795</v>
       </c>
-      <c r="U50" s="37"/>
+      <c r="U50" s="41"/>
     </row>
     <row r="51" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="13" t="s">
@@ -27927,27 +27893,27 @@
         <v>296</v>
       </c>
       <c r="H51" s="17"/>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="34" t="s">
         <v>796</v>
       </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="35" t="s">
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="33" t="s">
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="42" t="s">
         <v>798</v>
       </c>
-      <c r="S51" s="34"/>
-      <c r="T51" s="35" t="s">
+      <c r="S51" s="43"/>
+      <c r="T51" s="39" t="s">
         <v>799</v>
       </c>
-      <c r="U51" s="37"/>
+      <c r="U51" s="41"/>
     </row>
     <row r="52" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="13" t="s">
@@ -27962,27 +27928,27 @@
         <v>302</v>
       </c>
       <c r="H52" s="17"/>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="34" t="s">
         <v>800</v>
       </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="35" t="s">
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="39" t="s">
         <v>801</v>
       </c>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="33" t="s">
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="42" t="s">
         <v>802</v>
       </c>
-      <c r="S52" s="34"/>
-      <c r="T52" s="35" t="s">
+      <c r="S52" s="43"/>
+      <c r="T52" s="39" t="s">
         <v>803</v>
       </c>
-      <c r="U52" s="37"/>
+      <c r="U52" s="41"/>
     </row>
     <row r="53" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="13" t="s">
@@ -27997,27 +27963,27 @@
         <v>308</v>
       </c>
       <c r="H53" s="17"/>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="34" t="s">
         <v>804</v>
       </c>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="35" t="s">
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="33" t="s">
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="S53" s="34"/>
-      <c r="T53" s="35" t="s">
+      <c r="S53" s="43"/>
+      <c r="T53" s="39" t="s">
         <v>807</v>
       </c>
-      <c r="U53" s="37"/>
+      <c r="U53" s="41"/>
     </row>
     <row r="54" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
@@ -28032,27 +27998,27 @@
         <v>314</v>
       </c>
       <c r="H54" s="17"/>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="35" t="s">
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="39" t="s">
         <v>809</v>
       </c>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="33" t="s">
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="42" t="s">
         <v>810</v>
       </c>
-      <c r="S54" s="34"/>
-      <c r="T54" s="35" t="s">
+      <c r="S54" s="43"/>
+      <c r="T54" s="39" t="s">
         <v>811</v>
       </c>
-      <c r="U54" s="37"/>
+      <c r="U54" s="41"/>
     </row>
     <row r="55" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="13" t="s">
@@ -28067,27 +28033,27 @@
         <v>320</v>
       </c>
       <c r="H55" s="17"/>
-      <c r="I55" s="30" t="s">
+      <c r="I55" s="34" t="s">
         <v>812</v>
       </c>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="35" t="s">
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="39" t="s">
         <v>813</v>
       </c>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="33" t="s">
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="S55" s="34"/>
-      <c r="T55" s="35" t="s">
+      <c r="S55" s="43"/>
+      <c r="T55" s="39" t="s">
         <v>815</v>
       </c>
-      <c r="U55" s="37"/>
+      <c r="U55" s="41"/>
     </row>
     <row r="56" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
@@ -28102,27 +28068,27 @@
         <v>326</v>
       </c>
       <c r="H56" s="17"/>
-      <c r="I56" s="30" t="s">
+      <c r="I56" s="34" t="s">
         <v>816</v>
       </c>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="35" t="s">
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="33" t="s">
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="42" t="s">
         <v>818</v>
       </c>
-      <c r="S56" s="34"/>
-      <c r="T56" s="35" t="s">
+      <c r="S56" s="43"/>
+      <c r="T56" s="39" t="s">
         <v>819</v>
       </c>
-      <c r="U56" s="37"/>
+      <c r="U56" s="41"/>
     </row>
     <row r="57" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
@@ -28137,27 +28103,27 @@
         <v>332</v>
       </c>
       <c r="H57" s="17"/>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="34" t="s">
         <v>820</v>
       </c>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="35" t="s">
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="39" t="s">
         <v>821</v>
       </c>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="33" t="s">
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="S57" s="34"/>
-      <c r="T57" s="35" t="s">
+      <c r="S57" s="43"/>
+      <c r="T57" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="U57" s="37"/>
+      <c r="U57" s="41"/>
     </row>
     <row r="58" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="13" t="s">
@@ -28172,27 +28138,27 @@
         <v>336</v>
       </c>
       <c r="H58" s="17"/>
-      <c r="I58" s="30" t="s">
+      <c r="I58" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="35" t="s">
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="39" t="s">
         <v>825</v>
       </c>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="33" t="s">
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="S58" s="34"/>
-      <c r="T58" s="35" t="s">
+      <c r="S58" s="43"/>
+      <c r="T58" s="39" t="s">
         <v>827</v>
       </c>
-      <c r="U58" s="37"/>
+      <c r="U58" s="41"/>
     </row>
     <row r="59" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
@@ -28207,27 +28173,27 @@
         <v>342</v>
       </c>
       <c r="H59" s="17"/>
-      <c r="I59" s="30" t="s">
+      <c r="I59" s="34" t="s">
         <v>828</v>
       </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="35" t="s">
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="39" t="s">
         <v>829</v>
       </c>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="33" t="s">
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="42" t="s">
         <v>830</v>
       </c>
-      <c r="S59" s="34"/>
-      <c r="T59" s="35" t="s">
+      <c r="S59" s="43"/>
+      <c r="T59" s="39" t="s">
         <v>831</v>
       </c>
-      <c r="U59" s="37"/>
+      <c r="U59" s="41"/>
     </row>
     <row r="60" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="13" t="s">
@@ -28242,27 +28208,27 @@
         <v>348</v>
       </c>
       <c r="H60" s="17"/>
-      <c r="I60" s="30" t="s">
+      <c r="I60" s="34" t="s">
         <v>832</v>
       </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="35" t="s">
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="39" t="s">
         <v>833</v>
       </c>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="33" t="s">
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="42" t="s">
         <v>834</v>
       </c>
-      <c r="S60" s="34"/>
-      <c r="T60" s="35" t="s">
+      <c r="S60" s="43"/>
+      <c r="T60" s="39" t="s">
         <v>835</v>
       </c>
-      <c r="U60" s="37"/>
+      <c r="U60" s="41"/>
     </row>
     <row r="61" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
@@ -28277,27 +28243,27 @@
         <v>354</v>
       </c>
       <c r="H61" s="17"/>
-      <c r="I61" s="30" t="s">
+      <c r="I61" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="35" t="s">
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="33" t="s">
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="42" t="s">
         <v>618</v>
       </c>
-      <c r="S61" s="34"/>
-      <c r="T61" s="35" t="s">
+      <c r="S61" s="43"/>
+      <c r="T61" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="U61" s="37"/>
+      <c r="U61" s="41"/>
     </row>
     <row r="62" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="13" t="s">
@@ -28312,27 +28278,27 @@
         <v>358</v>
       </c>
       <c r="H62" s="17"/>
-      <c r="I62" s="30" t="s">
+      <c r="I62" s="34" t="s">
         <v>836</v>
       </c>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="35" t="s">
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="39" t="s">
         <v>837</v>
       </c>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="33" t="s">
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="42" t="s">
         <v>838</v>
       </c>
-      <c r="S62" s="34"/>
-      <c r="T62" s="35" t="s">
+      <c r="S62" s="43"/>
+      <c r="T62" s="39" t="s">
         <v>839</v>
       </c>
-      <c r="U62" s="37"/>
+      <c r="U62" s="41"/>
     </row>
     <row r="63" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="13" t="s">
@@ -28347,27 +28313,27 @@
         <v>364</v>
       </c>
       <c r="H63" s="17"/>
-      <c r="I63" s="30" t="s">
+      <c r="I63" s="34" t="s">
         <v>840</v>
       </c>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="35" t="s">
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="39" t="s">
         <v>841</v>
       </c>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="33" t="s">
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="42" t="s">
         <v>842</v>
       </c>
-      <c r="S63" s="34"/>
-      <c r="T63" s="35" t="s">
+      <c r="S63" s="43"/>
+      <c r="T63" s="39" t="s">
         <v>843</v>
       </c>
-      <c r="U63" s="37"/>
+      <c r="U63" s="41"/>
     </row>
     <row r="64" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="13" t="s">
@@ -28382,27 +28348,27 @@
         <v>370</v>
       </c>
       <c r="H64" s="17"/>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="34" t="s">
         <v>844</v>
       </c>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="35" t="s">
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="39" t="s">
         <v>845</v>
       </c>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="33" t="s">
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="42" t="s">
         <v>846</v>
       </c>
-      <c r="S64" s="34"/>
-      <c r="T64" s="35" t="s">
+      <c r="S64" s="43"/>
+      <c r="T64" s="39" t="s">
         <v>847</v>
       </c>
-      <c r="U64" s="37"/>
+      <c r="U64" s="41"/>
     </row>
     <row r="65" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="13" t="s">
@@ -28417,27 +28383,27 @@
         <v>375</v>
       </c>
       <c r="H65" s="17"/>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="34" t="s">
         <v>848</v>
       </c>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="35" t="s">
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="39" t="s">
         <v>849</v>
       </c>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="33" t="s">
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="42" t="s">
         <v>850</v>
       </c>
-      <c r="S65" s="34"/>
-      <c r="T65" s="35" t="s">
+      <c r="S65" s="43"/>
+      <c r="T65" s="39" t="s">
         <v>851</v>
       </c>
-      <c r="U65" s="37"/>
+      <c r="U65" s="41"/>
     </row>
     <row r="66" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="13" t="s">
@@ -28452,27 +28418,27 @@
         <v>381</v>
       </c>
       <c r="H66" s="17"/>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="34" t="s">
         <v>852</v>
       </c>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="35" t="s">
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="39" t="s">
         <v>853</v>
       </c>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="33" t="s">
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="42" t="s">
         <v>854</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="35" t="s">
+      <c r="S66" s="43"/>
+      <c r="T66" s="39" t="s">
         <v>855</v>
       </c>
-      <c r="U66" s="37"/>
+      <c r="U66" s="41"/>
     </row>
     <row r="67" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="13" t="s">
@@ -28487,27 +28453,27 @@
         <v>387</v>
       </c>
       <c r="H67" s="17"/>
-      <c r="I67" s="30" t="s">
+      <c r="I67" s="34" t="s">
         <v>856</v>
       </c>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="35" t="s">
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="39" t="s">
         <v>857</v>
       </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="33" t="s">
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="42" t="s">
         <v>858</v>
       </c>
-      <c r="S67" s="34"/>
-      <c r="T67" s="35" t="s">
+      <c r="S67" s="43"/>
+      <c r="T67" s="39" t="s">
         <v>859</v>
       </c>
-      <c r="U67" s="37"/>
+      <c r="U67" s="41"/>
     </row>
     <row r="68" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="13" t="s">
@@ -28522,27 +28488,27 @@
         <v>393</v>
       </c>
       <c r="H68" s="17"/>
-      <c r="I68" s="30" t="s">
+      <c r="I68" s="34" t="s">
         <v>860</v>
       </c>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="35" t="s">
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="39" t="s">
         <v>861</v>
       </c>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="33" t="s">
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="42" t="s">
         <v>862</v>
       </c>
-      <c r="S68" s="34"/>
-      <c r="T68" s="35" t="s">
+      <c r="S68" s="43"/>
+      <c r="T68" s="39" t="s">
         <v>863</v>
       </c>
-      <c r="U68" s="37"/>
+      <c r="U68" s="41"/>
     </row>
     <row r="69" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="13" t="s">
@@ -28557,27 +28523,27 @@
         <v>399</v>
       </c>
       <c r="H69" s="17"/>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="34" t="s">
         <v>864</v>
       </c>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="35" t="s">
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="39" t="s">
         <v>865</v>
       </c>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="33" t="s">
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="S69" s="34"/>
-      <c r="T69" s="35" t="s">
+      <c r="S69" s="43"/>
+      <c r="T69" s="39" t="s">
         <v>867</v>
       </c>
-      <c r="U69" s="37"/>
+      <c r="U69" s="41"/>
     </row>
     <row r="70" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
@@ -28592,27 +28558,27 @@
         <v>405</v>
       </c>
       <c r="H70" s="17"/>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="34" t="s">
         <v>816</v>
       </c>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="35" t="s">
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="O70" s="36"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="33" t="s">
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="42" t="s">
         <v>818</v>
       </c>
-      <c r="S70" s="34"/>
-      <c r="T70" s="35" t="s">
+      <c r="S70" s="43"/>
+      <c r="T70" s="39" t="s">
         <v>819</v>
       </c>
-      <c r="U70" s="37"/>
+      <c r="U70" s="41"/>
     </row>
     <row r="71" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="13" t="s">
@@ -28627,27 +28593,27 @@
         <v>409</v>
       </c>
       <c r="H71" s="17"/>
-      <c r="I71" s="30" t="s">
+      <c r="I71" s="34" t="s">
         <v>868</v>
       </c>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="35" t="s">
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="39" t="s">
         <v>869</v>
       </c>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="33" t="s">
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="42" t="s">
         <v>870</v>
       </c>
-      <c r="S71" s="34"/>
-      <c r="T71" s="35" t="s">
+      <c r="S71" s="43"/>
+      <c r="T71" s="39" t="s">
         <v>871</v>
       </c>
-      <c r="U71" s="37"/>
+      <c r="U71" s="41"/>
     </row>
     <row r="72" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="13" t="s">
@@ -28662,27 +28628,27 @@
         <v>413</v>
       </c>
       <c r="H72" s="17"/>
-      <c r="I72" s="30" t="s">
+      <c r="I72" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="35" t="s">
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="39" t="s">
         <v>873</v>
       </c>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="33" t="s">
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="42" t="s">
         <v>874</v>
       </c>
-      <c r="S72" s="34"/>
-      <c r="T72" s="35" t="s">
+      <c r="S72" s="43"/>
+      <c r="T72" s="39" t="s">
         <v>875</v>
       </c>
-      <c r="U72" s="37"/>
+      <c r="U72" s="41"/>
     </row>
     <row r="73" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="13" t="s">
@@ -28697,27 +28663,27 @@
         <v>419</v>
       </c>
       <c r="H73" s="17"/>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="35" t="s">
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="39" t="s">
         <v>877</v>
       </c>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="33" t="s">
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42" t="s">
         <v>878</v>
       </c>
-      <c r="S73" s="34"/>
-      <c r="T73" s="35" t="s">
+      <c r="S73" s="43"/>
+      <c r="T73" s="39" t="s">
         <v>879</v>
       </c>
-      <c r="U73" s="37"/>
+      <c r="U73" s="41"/>
     </row>
     <row r="74" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
@@ -28732,27 +28698,27 @@
         <v>423</v>
       </c>
       <c r="H74" s="17"/>
-      <c r="I74" s="30" t="s">
+      <c r="I74" s="34" t="s">
         <v>880</v>
       </c>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="35" t="s">
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="39" t="s">
         <v>881</v>
       </c>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="33" t="s">
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="42" t="s">
         <v>882</v>
       </c>
-      <c r="S74" s="34"/>
-      <c r="T74" s="35" t="s">
+      <c r="S74" s="43"/>
+      <c r="T74" s="39" t="s">
         <v>883</v>
       </c>
-      <c r="U74" s="37"/>
+      <c r="U74" s="41"/>
     </row>
     <row r="75" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="13" t="s">
@@ -28767,27 +28733,27 @@
         <v>429</v>
       </c>
       <c r="H75" s="17"/>
-      <c r="I75" s="30" t="s">
+      <c r="I75" s="34" t="s">
         <v>884</v>
       </c>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="35" t="s">
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="39" t="s">
         <v>885</v>
       </c>
-      <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="33" t="s">
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="42" t="s">
         <v>886</v>
       </c>
-      <c r="S75" s="34"/>
-      <c r="T75" s="35" t="s">
+      <c r="S75" s="43"/>
+      <c r="T75" s="39" t="s">
         <v>887</v>
       </c>
-      <c r="U75" s="37"/>
+      <c r="U75" s="41"/>
     </row>
     <row r="76" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
@@ -28802,27 +28768,27 @@
         <v>433</v>
       </c>
       <c r="H76" s="17"/>
-      <c r="I76" s="30" t="s">
+      <c r="I76" s="34" t="s">
         <v>888</v>
       </c>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="35" t="s">
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="39" t="s">
         <v>889</v>
       </c>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="33" t="s">
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="42" t="s">
         <v>890</v>
       </c>
-      <c r="S76" s="34"/>
-      <c r="T76" s="35" t="s">
+      <c r="S76" s="43"/>
+      <c r="T76" s="39" t="s">
         <v>891</v>
       </c>
-      <c r="U76" s="37"/>
+      <c r="U76" s="41"/>
     </row>
     <row r="77" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="13" t="s">
@@ -28837,27 +28803,27 @@
         <v>439</v>
       </c>
       <c r="H77" s="17"/>
-      <c r="I77" s="30" t="s">
+      <c r="I77" s="34" t="s">
         <v>892</v>
       </c>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="35" t="s">
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="39" t="s">
         <v>893</v>
       </c>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="33" t="s">
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="42" t="s">
         <v>894</v>
       </c>
-      <c r="S77" s="34"/>
-      <c r="T77" s="35" t="s">
+      <c r="S77" s="43"/>
+      <c r="T77" s="39" t="s">
         <v>895</v>
       </c>
-      <c r="U77" s="37"/>
+      <c r="U77" s="41"/>
     </row>
     <row r="78" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="13" t="s">
@@ -28872,27 +28838,27 @@
         <v>445</v>
       </c>
       <c r="H78" s="17"/>
-      <c r="I78" s="30" t="s">
+      <c r="I78" s="34" t="s">
         <v>896</v>
       </c>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="35" t="s">
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="39" t="s">
         <v>897</v>
       </c>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="33" t="s">
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="42" t="s">
         <v>898</v>
       </c>
-      <c r="S78" s="34"/>
-      <c r="T78" s="35" t="s">
+      <c r="S78" s="43"/>
+      <c r="T78" s="39" t="s">
         <v>899</v>
       </c>
-      <c r="U78" s="37"/>
+      <c r="U78" s="41"/>
     </row>
     <row r="79" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="13" t="s">
@@ -28907,27 +28873,27 @@
         <v>451</v>
       </c>
       <c r="H79" s="17"/>
-      <c r="I79" s="30" t="s">
+      <c r="I79" s="34" t="s">
         <v>900</v>
       </c>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="35" t="s">
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="39" t="s">
         <v>901</v>
       </c>
-      <c r="O79" s="36"/>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="33" t="s">
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="42" t="s">
         <v>902</v>
       </c>
-      <c r="S79" s="34"/>
-      <c r="T79" s="35" t="s">
+      <c r="S79" s="43"/>
+      <c r="T79" s="39" t="s">
         <v>903</v>
       </c>
-      <c r="U79" s="37"/>
+      <c r="U79" s="41"/>
     </row>
     <row r="80" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="13" t="s">
@@ -28942,27 +28908,27 @@
         <v>457</v>
       </c>
       <c r="H80" s="17"/>
-      <c r="I80" s="30" t="s">
+      <c r="I80" s="34" t="s">
         <v>904</v>
       </c>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="35" t="s">
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="39" t="s">
         <v>905</v>
       </c>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="33" t="s">
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="42" t="s">
         <v>906</v>
       </c>
-      <c r="S80" s="34"/>
-      <c r="T80" s="35" t="s">
+      <c r="S80" s="43"/>
+      <c r="T80" s="39" t="s">
         <v>907</v>
       </c>
-      <c r="U80" s="37"/>
+      <c r="U80" s="41"/>
     </row>
     <row r="81" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="13" t="s">
@@ -28977,27 +28943,27 @@
         <v>463</v>
       </c>
       <c r="H81" s="17"/>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="34" t="s">
         <v>908</v>
       </c>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="35" t="s">
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="39" t="s">
         <v>909</v>
       </c>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="33" t="s">
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="42" t="s">
         <v>910</v>
       </c>
-      <c r="S81" s="34"/>
-      <c r="T81" s="35" t="s">
+      <c r="S81" s="43"/>
+      <c r="T81" s="39" t="s">
         <v>911</v>
       </c>
-      <c r="U81" s="37"/>
+      <c r="U81" s="41"/>
     </row>
     <row r="82" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="13" t="s">
@@ -29012,27 +28978,27 @@
         <v>469</v>
       </c>
       <c r="H82" s="17"/>
-      <c r="I82" s="30" t="s">
+      <c r="I82" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="35" t="s">
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="33" t="s">
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="S82" s="34"/>
-      <c r="T82" s="35" t="s">
+      <c r="S82" s="43"/>
+      <c r="T82" s="39" t="s">
         <v>643</v>
       </c>
-      <c r="U82" s="37"/>
+      <c r="U82" s="41"/>
     </row>
     <row r="83" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="13" t="s">
@@ -29047,27 +29013,27 @@
         <v>471</v>
       </c>
       <c r="H83" s="17"/>
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="34" t="s">
         <v>912</v>
       </c>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="35" t="s">
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="39" t="s">
         <v>913</v>
       </c>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="33" t="s">
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="42" t="s">
         <v>914</v>
       </c>
-      <c r="S83" s="34"/>
-      <c r="T83" s="35" t="s">
+      <c r="S83" s="43"/>
+      <c r="T83" s="39" t="s">
         <v>915</v>
       </c>
-      <c r="U83" s="37"/>
+      <c r="U83" s="41"/>
     </row>
     <row r="84" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="13" t="s">
@@ -29082,27 +29048,27 @@
         <v>477</v>
       </c>
       <c r="H84" s="17"/>
-      <c r="I84" s="30" t="s">
+      <c r="I84" s="34" t="s">
         <v>916</v>
       </c>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="35" t="s">
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="39" t="s">
         <v>917</v>
       </c>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="33" t="s">
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="42" t="s">
         <v>918</v>
       </c>
-      <c r="S84" s="34"/>
-      <c r="T84" s="35" t="s">
+      <c r="S84" s="43"/>
+      <c r="T84" s="39" t="s">
         <v>919</v>
       </c>
-      <c r="U84" s="37"/>
+      <c r="U84" s="41"/>
     </row>
     <row r="85" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="13" t="s">
@@ -29117,27 +29083,27 @@
         <v>483</v>
       </c>
       <c r="H85" s="17"/>
-      <c r="I85" s="30" t="s">
+      <c r="I85" s="34" t="s">
         <v>920</v>
       </c>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="35" t="s">
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="39" t="s">
         <v>921</v>
       </c>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="33" t="s">
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="S85" s="34"/>
-      <c r="T85" s="35" t="s">
+      <c r="S85" s="43"/>
+      <c r="T85" s="39" t="s">
         <v>923</v>
       </c>
-      <c r="U85" s="37"/>
+      <c r="U85" s="41"/>
     </row>
     <row r="86" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="13" t="s">
@@ -29152,27 +29118,27 @@
         <v>489</v>
       </c>
       <c r="H86" s="17"/>
-      <c r="I86" s="30" t="s">
+      <c r="I86" s="34" t="s">
         <v>924</v>
       </c>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="35" t="s">
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="39" t="s">
         <v>925</v>
       </c>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="33" t="s">
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="42" t="s">
         <v>926</v>
       </c>
-      <c r="S86" s="34"/>
-      <c r="T86" s="35" t="s">
+      <c r="S86" s="43"/>
+      <c r="T86" s="39" t="s">
         <v>927</v>
       </c>
-      <c r="U86" s="37"/>
+      <c r="U86" s="41"/>
     </row>
     <row r="87" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="13" t="s">
@@ -29187,27 +29153,27 @@
         <v>495</v>
       </c>
       <c r="H87" s="17"/>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="34" t="s">
         <v>928</v>
       </c>
-      <c r="J87" s="31"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="35" t="s">
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="39" t="s">
         <v>929</v>
       </c>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="33" t="s">
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="42" t="s">
         <v>930</v>
       </c>
-      <c r="S87" s="34"/>
-      <c r="T87" s="35" t="s">
+      <c r="S87" s="43"/>
+      <c r="T87" s="39" t="s">
         <v>931</v>
       </c>
-      <c r="U87" s="37"/>
+      <c r="U87" s="41"/>
     </row>
     <row r="88" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="13" t="s">
@@ -29222,27 +29188,27 @@
         <v>501</v>
       </c>
       <c r="H88" s="17"/>
-      <c r="I88" s="30" t="s">
+      <c r="I88" s="34" t="s">
         <v>932</v>
       </c>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="35" t="s">
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="39" t="s">
         <v>933</v>
       </c>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="33" t="s">
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="42" t="s">
         <v>934</v>
       </c>
-      <c r="S88" s="34"/>
-      <c r="T88" s="35" t="s">
+      <c r="S88" s="43"/>
+      <c r="T88" s="39" t="s">
         <v>935</v>
       </c>
-      <c r="U88" s="37"/>
+      <c r="U88" s="41"/>
     </row>
     <row r="89" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="13" t="s">
@@ -29257,27 +29223,27 @@
         <v>507</v>
       </c>
       <c r="H89" s="17"/>
-      <c r="I89" s="30" t="s">
+      <c r="I89" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="J89" s="31"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="35" t="s">
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="39" t="s">
         <v>937</v>
       </c>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="33" t="s">
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="42" t="s">
         <v>938</v>
       </c>
-      <c r="S89" s="34"/>
-      <c r="T89" s="35" t="s">
+      <c r="S89" s="43"/>
+      <c r="T89" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="U89" s="37"/>
+      <c r="U89" s="41"/>
     </row>
     <row r="90" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
@@ -29292,27 +29258,27 @@
         <v>513</v>
       </c>
       <c r="H90" s="17"/>
-      <c r="I90" s="30" t="s">
+      <c r="I90" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="35" t="s">
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="39" t="s">
         <v>941</v>
       </c>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="33" t="s">
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="42" t="s">
         <v>942</v>
       </c>
-      <c r="S90" s="34"/>
-      <c r="T90" s="35" t="s">
+      <c r="S90" s="43"/>
+      <c r="T90" s="39" t="s">
         <v>943</v>
       </c>
-      <c r="U90" s="37"/>
+      <c r="U90" s="41"/>
     </row>
     <row r="91" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
@@ -29327,27 +29293,27 @@
         <v>519</v>
       </c>
       <c r="H91" s="17"/>
-      <c r="I91" s="30" t="s">
+      <c r="I91" s="34" t="s">
         <v>944</v>
       </c>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="32"/>
-      <c r="N91" s="35" t="s">
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="39" t="s">
         <v>945</v>
       </c>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="33" t="s">
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="42" t="s">
         <v>946</v>
       </c>
-      <c r="S91" s="34"/>
-      <c r="T91" s="35" t="s">
+      <c r="S91" s="43"/>
+      <c r="T91" s="39" t="s">
         <v>947</v>
       </c>
-      <c r="U91" s="37"/>
+      <c r="U91" s="41"/>
     </row>
     <row r="92" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
@@ -29362,27 +29328,27 @@
         <v>523</v>
       </c>
       <c r="H92" s="17"/>
-      <c r="I92" s="30" t="s">
+      <c r="I92" s="34" t="s">
         <v>948</v>
       </c>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="35" t="s">
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="39" t="s">
         <v>949</v>
       </c>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="33" t="s">
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="42" t="s">
         <v>950</v>
       </c>
-      <c r="S92" s="34"/>
-      <c r="T92" s="35" t="s">
+      <c r="S92" s="43"/>
+      <c r="T92" s="39" t="s">
         <v>951</v>
       </c>
-      <c r="U92" s="37"/>
+      <c r="U92" s="41"/>
     </row>
     <row r="93" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
@@ -29397,27 +29363,27 @@
         <v>529</v>
       </c>
       <c r="H93" s="17"/>
-      <c r="I93" s="30" t="s">
+      <c r="I93" s="34" t="s">
         <v>952</v>
       </c>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="31"/>
-      <c r="M93" s="32"/>
-      <c r="N93" s="35" t="s">
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="39" t="s">
         <v>953</v>
       </c>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="33" t="s">
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="42" t="s">
         <v>954</v>
       </c>
-      <c r="S93" s="34"/>
-      <c r="T93" s="35" t="s">
+      <c r="S93" s="43"/>
+      <c r="T93" s="39" t="s">
         <v>955</v>
       </c>
-      <c r="U93" s="37"/>
+      <c r="U93" s="41"/>
     </row>
     <row r="94" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="13" t="s">
@@ -29432,27 +29398,27 @@
         <v>535</v>
       </c>
       <c r="H94" s="17"/>
-      <c r="I94" s="30" t="s">
+      <c r="I94" s="34" t="s">
         <v>956</v>
       </c>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="35" t="s">
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="39" t="s">
         <v>957</v>
       </c>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="33" t="s">
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="42" t="s">
         <v>958</v>
       </c>
-      <c r="S94" s="34"/>
-      <c r="T94" s="35" t="s">
+      <c r="S94" s="43"/>
+      <c r="T94" s="39" t="s">
         <v>959</v>
       </c>
-      <c r="U94" s="37"/>
+      <c r="U94" s="41"/>
     </row>
     <row r="95" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="13" t="s">
@@ -29467,27 +29433,27 @@
         <v>541</v>
       </c>
       <c r="H95" s="17"/>
-      <c r="I95" s="30" t="s">
+      <c r="I95" s="34" t="s">
         <v>960</v>
       </c>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="35" t="s">
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="39" t="s">
         <v>961</v>
       </c>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="33" t="s">
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="42" t="s">
         <v>962</v>
       </c>
-      <c r="S95" s="34"/>
-      <c r="T95" s="35" t="s">
+      <c r="S95" s="43"/>
+      <c r="T95" s="39" t="s">
         <v>963</v>
       </c>
-      <c r="U95" s="37"/>
+      <c r="U95" s="41"/>
     </row>
     <row r="96" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="13" t="s">
@@ -29502,27 +29468,27 @@
         <v>547</v>
       </c>
       <c r="H96" s="17"/>
-      <c r="I96" s="30" t="s">
+      <c r="I96" s="34" t="s">
         <v>964</v>
       </c>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="35" t="s">
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="39" t="s">
         <v>965</v>
       </c>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="33" t="s">
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="42" t="s">
         <v>966</v>
       </c>
-      <c r="S96" s="34"/>
-      <c r="T96" s="35" t="s">
+      <c r="S96" s="43"/>
+      <c r="T96" s="39" t="s">
         <v>967</v>
       </c>
-      <c r="U96" s="37"/>
+      <c r="U96" s="41"/>
     </row>
     <row r="97" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="13" t="s">
@@ -29537,27 +29503,27 @@
         <v>551</v>
       </c>
       <c r="H97" s="17"/>
-      <c r="I97" s="30" t="s">
+      <c r="I97" s="34" t="s">
         <v>968</v>
       </c>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="32"/>
-      <c r="N97" s="35" t="s">
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="33" t="s">
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="42" t="s">
         <v>970</v>
       </c>
-      <c r="S97" s="34"/>
-      <c r="T97" s="35" t="s">
+      <c r="S97" s="43"/>
+      <c r="T97" s="39" t="s">
         <v>971</v>
       </c>
-      <c r="U97" s="37"/>
+      <c r="U97" s="41"/>
     </row>
     <row r="98" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="13" t="s">
@@ -29572,27 +29538,27 @@
         <v>557</v>
       </c>
       <c r="H98" s="17"/>
-      <c r="I98" s="30" t="s">
+      <c r="I98" s="34" t="s">
         <v>972</v>
       </c>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="35" t="s">
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="39" t="s">
         <v>973</v>
       </c>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="33" t="s">
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="42" t="s">
         <v>974</v>
       </c>
-      <c r="S98" s="34"/>
-      <c r="T98" s="35" t="s">
+      <c r="S98" s="43"/>
+      <c r="T98" s="39" t="s">
         <v>975</v>
       </c>
-      <c r="U98" s="37"/>
+      <c r="U98" s="41"/>
     </row>
     <row r="99" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="13" t="s">
@@ -29607,27 +29573,27 @@
         <v>563</v>
       </c>
       <c r="H99" s="17"/>
-      <c r="I99" s="30" t="s">
+      <c r="I99" s="34" t="s">
         <v>976</v>
       </c>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
-      <c r="L99" s="31"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="35" t="s">
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="39" t="s">
         <v>977</v>
       </c>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="33" t="s">
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="42" t="s">
         <v>978</v>
       </c>
-      <c r="S99" s="34"/>
-      <c r="T99" s="35" t="s">
+      <c r="S99" s="43"/>
+      <c r="T99" s="39" t="s">
         <v>979</v>
       </c>
-      <c r="U99" s="37"/>
+      <c r="U99" s="41"/>
     </row>
     <row r="100" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="13" t="s">
@@ -29642,27 +29608,27 @@
         <v>569</v>
       </c>
       <c r="H100" s="17"/>
-      <c r="I100" s="30" t="s">
+      <c r="I100" s="34" t="s">
         <v>980</v>
       </c>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="32"/>
-      <c r="N100" s="35" t="s">
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="39" t="s">
         <v>981</v>
       </c>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="33" t="s">
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="42" t="s">
         <v>982</v>
       </c>
-      <c r="S100" s="34"/>
-      <c r="T100" s="35" t="s">
+      <c r="S100" s="43"/>
+      <c r="T100" s="39" t="s">
         <v>983</v>
       </c>
-      <c r="U100" s="37"/>
+      <c r="U100" s="41"/>
     </row>
     <row r="101" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="13" t="s">
@@ -29677,27 +29643,27 @@
         <v>575</v>
       </c>
       <c r="H101" s="17"/>
-      <c r="I101" s="30" t="s">
+      <c r="I101" s="34" t="s">
         <v>984</v>
       </c>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="35" t="s">
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="39" t="s">
         <v>985</v>
       </c>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="33" t="s">
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="41"/>
+      <c r="R101" s="42" t="s">
         <v>986</v>
       </c>
-      <c r="S101" s="34"/>
-      <c r="T101" s="35" t="s">
+      <c r="S101" s="43"/>
+      <c r="T101" s="39" t="s">
         <v>987</v>
       </c>
-      <c r="U101" s="37"/>
+      <c r="U101" s="41"/>
     </row>
     <row r="102" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="13" t="s">
@@ -29712,27 +29678,27 @@
         <v>579</v>
       </c>
       <c r="H102" s="17"/>
-      <c r="I102" s="30" t="s">
+      <c r="I102" s="34" t="s">
         <v>988</v>
       </c>
-      <c r="J102" s="31"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="35" t="s">
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="39" t="s">
         <v>989</v>
       </c>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="33" t="s">
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="42" t="s">
         <v>990</v>
       </c>
-      <c r="S102" s="34"/>
-      <c r="T102" s="35" t="s">
+      <c r="S102" s="43"/>
+      <c r="T102" s="39" t="s">
         <v>991</v>
       </c>
-      <c r="U102" s="37"/>
+      <c r="U102" s="41"/>
     </row>
     <row r="103" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="13" t="s">
@@ -29747,27 +29713,27 @@
         <v>585</v>
       </c>
       <c r="H103" s="17"/>
-      <c r="I103" s="30" t="s">
+      <c r="I103" s="34" t="s">
         <v>992</v>
       </c>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="35" t="s">
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="39" t="s">
         <v>993</v>
       </c>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="33" t="s">
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="42" t="s">
         <v>994</v>
       </c>
-      <c r="S103" s="34"/>
-      <c r="T103" s="35" t="s">
+      <c r="S103" s="43"/>
+      <c r="T103" s="39" t="s">
         <v>995</v>
       </c>
-      <c r="U103" s="37"/>
+      <c r="U103" s="41"/>
     </row>
     <row r="104" spans="1:21" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="13" t="s">
@@ -29782,27 +29748,27 @@
         <v>591</v>
       </c>
       <c r="H104" s="17"/>
-      <c r="I104" s="30" t="s">
+      <c r="I104" s="34" t="s">
         <v>996</v>
       </c>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
-      <c r="L104" s="31"/>
-      <c r="M104" s="32"/>
-      <c r="N104" s="35" t="s">
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="39" t="s">
         <v>997</v>
       </c>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="37"/>
-      <c r="R104" s="33" t="s">
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="42" t="s">
         <v>998</v>
       </c>
-      <c r="S104" s="34"/>
-      <c r="T104" s="35" t="s">
+      <c r="S104" s="43"/>
+      <c r="T104" s="39" t="s">
         <v>999</v>
       </c>
-      <c r="U104" s="37"/>
+      <c r="U104" s="41"/>
     </row>
     <row r="105" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
@@ -29915,41 +29881,41 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="38" t="s">
+      <c r="A127" s="44" t="s">
         <v>1022</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="39"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="40"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="45"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="45"/>
+      <c r="K127" s="45"/>
+      <c r="L127" s="45"/>
+      <c r="M127" s="46"/>
     </row>
     <row r="128" spans="1:13" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="41"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="43" t="s">
+      <c r="A128" s="37"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="47" t="s">
         <v>1023</v>
       </c>
-      <c r="D128" s="44"/>
-      <c r="E128" s="45"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="49"/>
       <c r="F128" s="16" t="s">
         <v>1024</v>
       </c>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50"/>
       <c r="I128" s="17"/>
       <c r="J128" s="16" t="s">
         <v>1025</v>
       </c>
-      <c r="K128" s="46"/>
-      <c r="L128" s="46"/>
+      <c r="K128" s="50"/>
+      <c r="L128" s="50"/>
       <c r="M128" s="17"/>
     </row>
     <row r="129" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -29957,276 +29923,276 @@
         <v>1026</v>
       </c>
       <c r="B129" s="17"/>
-      <c r="C129" s="47" t="s">
+      <c r="C129" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="D129" s="48"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="30" t="s">
+      <c r="D129" s="32"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="34" t="s">
         <v>1028</v>
       </c>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="30" t="s">
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="34" t="s">
         <v>1029</v>
       </c>
-      <c r="K129" s="31"/>
-      <c r="L129" s="31"/>
-      <c r="M129" s="32"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="36"/>
     </row>
     <row r="130" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="16" t="s">
         <v>1030</v>
       </c>
       <c r="B130" s="17"/>
-      <c r="C130" s="47" t="s">
+      <c r="C130" s="31" t="s">
         <v>1031</v>
       </c>
-      <c r="D130" s="48"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="30" t="s">
+      <c r="D130" s="32"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="34" t="s">
         <v>1032</v>
       </c>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="32"/>
-      <c r="J130" s="30" t="s">
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="34" t="s">
         <v>1033</v>
       </c>
-      <c r="K130" s="31"/>
-      <c r="L130" s="31"/>
-      <c r="M130" s="32"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="36"/>
     </row>
     <row r="131" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="16" t="s">
         <v>1034</v>
       </c>
       <c r="B131" s="17"/>
-      <c r="C131" s="47" t="s">
+      <c r="C131" s="31" t="s">
         <v>1035</v>
       </c>
-      <c r="D131" s="48"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="30" t="s">
+      <c r="D131" s="32"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="34" t="s">
         <v>1036</v>
       </c>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="32"/>
-      <c r="J131" s="30" t="s">
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="34" t="s">
         <v>1037</v>
       </c>
-      <c r="K131" s="31"/>
-      <c r="L131" s="31"/>
-      <c r="M131" s="32"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="36"/>
     </row>
     <row r="132" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="16" t="s">
         <v>1038</v>
       </c>
       <c r="B132" s="17"/>
-      <c r="C132" s="47" t="s">
+      <c r="C132" s="31" t="s">
         <v>1039</v>
       </c>
-      <c r="D132" s="48"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="30" t="s">
+      <c r="D132" s="32"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="34" t="s">
         <v>1040</v>
       </c>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="32"/>
-      <c r="J132" s="30" t="s">
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="34" t="s">
         <v>1041</v>
       </c>
-      <c r="K132" s="31"/>
-      <c r="L132" s="31"/>
-      <c r="M132" s="32"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="36"/>
     </row>
     <row r="133" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="16" t="s">
         <v>1042</v>
       </c>
       <c r="B133" s="17"/>
-      <c r="C133" s="47" t="s">
+      <c r="C133" s="31" t="s">
         <v>1043</v>
       </c>
-      <c r="D133" s="48"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="30" t="s">
+      <c r="D133" s="32"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="34" t="s">
         <v>1044</v>
       </c>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="32"/>
-      <c r="J133" s="30" t="s">
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="34" t="s">
         <v>1045</v>
       </c>
-      <c r="K133" s="31"/>
-      <c r="L133" s="31"/>
-      <c r="M133" s="32"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="36"/>
     </row>
     <row r="134" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="16" t="s">
         <v>1046</v>
       </c>
       <c r="B134" s="17"/>
-      <c r="C134" s="47" t="s">
+      <c r="C134" s="31" t="s">
         <v>1047</v>
       </c>
-      <c r="D134" s="48"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="30" t="s">
+      <c r="D134" s="32"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="34" t="s">
         <v>1048</v>
       </c>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="30" t="s">
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="34" t="s">
         <v>1049</v>
       </c>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="32"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="36"/>
     </row>
     <row r="135" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="16" t="s">
         <v>1050</v>
       </c>
       <c r="B135" s="17"/>
-      <c r="C135" s="47" t="s">
+      <c r="C135" s="31" t="s">
         <v>1051</v>
       </c>
-      <c r="D135" s="48"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="30" t="s">
+      <c r="D135" s="32"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="34" t="s">
         <v>1052</v>
       </c>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="32"/>
-      <c r="J135" s="30" t="s">
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="34" t="s">
         <v>1053</v>
       </c>
-      <c r="K135" s="31"/>
-      <c r="L135" s="31"/>
-      <c r="M135" s="32"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="36"/>
     </row>
     <row r="136" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="16" t="s">
         <v>1054</v>
       </c>
       <c r="B136" s="17"/>
-      <c r="C136" s="47" t="s">
+      <c r="C136" s="31" t="s">
         <v>1055</v>
       </c>
-      <c r="D136" s="48"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="30" t="s">
+      <c r="D136" s="32"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="34" t="s">
         <v>1056</v>
       </c>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="32"/>
-      <c r="J136" s="30" t="s">
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="34" t="s">
         <v>1057</v>
       </c>
-      <c r="K136" s="31"/>
-      <c r="L136" s="31"/>
-      <c r="M136" s="32"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="36"/>
     </row>
     <row r="137" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="16" t="s">
         <v>1058</v>
       </c>
       <c r="B137" s="17"/>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="31" t="s">
         <v>1059</v>
       </c>
-      <c r="D137" s="48"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="30" t="s">
+      <c r="D137" s="32"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="32"/>
-      <c r="J137" s="30" t="s">
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="34" t="s">
         <v>1061</v>
       </c>
-      <c r="K137" s="31"/>
-      <c r="L137" s="31"/>
-      <c r="M137" s="32"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="36"/>
     </row>
     <row r="138" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="16" t="s">
         <v>1062</v>
       </c>
       <c r="B138" s="17"/>
-      <c r="C138" s="47" t="s">
+      <c r="C138" s="31" t="s">
         <v>1063</v>
       </c>
-      <c r="D138" s="48"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="30" t="s">
+      <c r="D138" s="32"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="34" t="s">
         <v>1064</v>
       </c>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="30" t="s">
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="34" t="s">
         <v>1065</v>
       </c>
-      <c r="K138" s="31"/>
-      <c r="L138" s="31"/>
-      <c r="M138" s="32"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="36"/>
     </row>
     <row r="139" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="16" t="s">
         <v>1066</v>
       </c>
       <c r="B139" s="17"/>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="31" t="s">
         <v>1067</v>
       </c>
-      <c r="D139" s="48"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="30" t="s">
+      <c r="D139" s="32"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="34" t="s">
         <v>1068</v>
       </c>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="30" t="s">
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="34" t="s">
         <v>1069</v>
       </c>
-      <c r="K139" s="31"/>
-      <c r="L139" s="31"/>
-      <c r="M139" s="32"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="36"/>
     </row>
     <row r="140" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="16" t="s">
         <v>1070</v>
       </c>
       <c r="B140" s="17"/>
-      <c r="C140" s="47" t="s">
+      <c r="C140" s="31" t="s">
         <v>1071</v>
       </c>
-      <c r="D140" s="48"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="30" t="s">
+      <c r="D140" s="32"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="34" t="s">
         <v>1072</v>
       </c>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="32"/>
-      <c r="J140" s="30" t="s">
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="34" t="s">
         <v>1073</v>
       </c>
-      <c r="K140" s="31"/>
-      <c r="L140" s="31"/>
-      <c r="M140" s="32"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="36"/>
     </row>
     <row r="141" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
@@ -30249,10 +30215,10 @@
       <c r="H141" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="I141" s="50" t="s">
+      <c r="I141" s="30" t="s">
         <v>1080</v>
       </c>
-      <c r="J141" s="50"/>
+      <c r="J141" s="30"/>
       <c r="K141" s="14" t="s">
         <v>1081</v>
       </c>
@@ -30273,24 +30239,24 @@
       <c r="R141" s="15"/>
     </row>
     <row r="142" spans="1:18" ht="10.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="41"/>
-      <c r="B142" s="50"/>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="42"/>
-      <c r="G142" s="41"/>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="50"/>
-      <c r="K142" s="50"/>
-      <c r="L142" s="42"/>
-      <c r="M142" s="41"/>
-      <c r="N142" s="50"/>
-      <c r="O142" s="50"/>
-      <c r="P142" s="50"/>
-      <c r="Q142" s="50"/>
-      <c r="R142" s="42"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="38"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="30"/>
+      <c r="O142" s="30"/>
+      <c r="P142" s="30"/>
+      <c r="Q142" s="30"/>
+      <c r="R142" s="38"/>
     </row>
     <row r="143" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
@@ -30313,10 +30279,10 @@
       <c r="H143" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="I143" s="50" t="s">
+      <c r="I143" s="30" t="s">
         <v>1080</v>
       </c>
-      <c r="J143" s="50"/>
+      <c r="J143" s="30"/>
       <c r="K143" s="14" t="s">
         <v>1081</v>
       </c>
@@ -30338,25 +30304,655 @@
     </row>
   </sheetData>
   <mergeCells count="692">
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="Q141:R141"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="J140:M140"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:L142"/>
-    <mergeCell ref="M142:R142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="I143:J143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="Q143:R143"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:M44"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:M48"/>
+    <mergeCell ref="N48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:M52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:M55"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:M58"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:M60"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:M64"/>
+    <mergeCell ref="N64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:M65"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="N69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:M68"/>
+    <mergeCell ref="N68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:M76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:M75"/>
+    <mergeCell ref="N75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:M79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:M77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:M82"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:M81"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:M80"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:M85"/>
+    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="N88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:M87"/>
+    <mergeCell ref="N87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:M86"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:M91"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:M90"/>
+    <mergeCell ref="N90:Q90"/>
+    <mergeCell ref="R90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:M89"/>
+    <mergeCell ref="N89:Q89"/>
+    <mergeCell ref="R89:S89"/>
+    <mergeCell ref="T89:U89"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:M94"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="T94:U94"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="N93:Q93"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="T99:U99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:M100"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="R100:S100"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="T97:U97"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:M95"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="T95:U95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:M96"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:S103"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="R98:S98"/>
+    <mergeCell ref="T98:U98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="R101:S101"/>
+    <mergeCell ref="T101:U101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="T100:U100"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="A127:M127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="J128:M128"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="F135:I135"/>
+    <mergeCell ref="J135:M135"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="J132:M132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="J130:M130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="J129:M129"/>
     <mergeCell ref="J139:M139"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="C136:E136"/>
@@ -30381,655 +30977,25 @@
     <mergeCell ref="A139:B139"/>
     <mergeCell ref="C139:E139"/>
     <mergeCell ref="F139:I139"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="J135:M135"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="J132:M132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="J130:M130"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="J129:M129"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="A127:M127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="J128:M128"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:S103"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:M98"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="T98:U98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="N101:Q101"/>
-    <mergeCell ref="R101:S101"/>
-    <mergeCell ref="T101:U101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T100:U100"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:M95"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="T95:U95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:M96"/>
-    <mergeCell ref="T99:U99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:M100"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="R100:S100"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="T97:U97"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:M89"/>
-    <mergeCell ref="N89:Q89"/>
-    <mergeCell ref="R89:S89"/>
-    <mergeCell ref="T89:U89"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:M94"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="T94:U94"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:M93"/>
-    <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:M91"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:M90"/>
-    <mergeCell ref="N90:Q90"/>
-    <mergeCell ref="R90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:M83"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:M88"/>
-    <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:M87"/>
-    <mergeCell ref="N87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:M86"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:M85"/>
-    <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:M77"/>
-    <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:M82"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:M81"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:M80"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:M79"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:M76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:M75"/>
-    <mergeCell ref="N75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:M74"/>
-    <mergeCell ref="N74:Q74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:M73"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:M65"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="N69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:M68"/>
-    <mergeCell ref="N68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:M62"/>
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:M60"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:M58"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:M57"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:M55"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:M54"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:M52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:M49"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="N48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:M44"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:L142"/>
+    <mergeCell ref="M142:R142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="I143:J143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="Q143:R143"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="Q141:R141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="J140:M140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
